--- a/evaluation/eval_QA_data.xlsx
+++ b/evaluation/eval_QA_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f956ed6162fb7f7/Documents/Duke Academics/Spring 2025/LLMs/duke-student-advisor-chatbot/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9AC0F8-4F02-4EBA-8CEB-5667A01B8FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5C9AC0F8-4F02-4EBA-8CEB-5667A01B8FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ACFA216-0708-494E-9CE5-DBB9EA3C58CF}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{D02F43CA-5D10-4639-9F54-C98544AAEE71}"/>
   </bookViews>
@@ -574,10 +574,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="36.61328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
